--- a/24-12V_3A_TPS62933/Documents/24-12V_3A_TPS62933-BOM.xlsx
+++ b/24-12V_3A_TPS62933/Documents/24-12V_3A_TPS62933-BOM.xlsx
@@ -16,29 +16,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
-  <si>
-    <t>Comment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+  <si>
+    <t>Line #</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Lifecycle 1</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Supplier Subtotal 1</t>
+  </si>
+  <si>
     <t>TPS62933DRLR</t>
   </si>
   <si>
@@ -48,7 +66,16 @@
     <t>B1</t>
   </si>
   <si>
-    <t>SOT583_TPS62933</t>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>595-TPS62933DRLR</t>
   </si>
   <si>
     <t>100n</t>
@@ -60,10 +87,16 @@
     <t>C1</t>
   </si>
   <si>
-    <t>0603_SMD_C</t>
-  </si>
-  <si>
-    <t>0603_SMD_Capacitor</t>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>CGA3E2X7R1E104M080AA</t>
+  </si>
+  <si>
+    <t>Volume Production</t>
+  </si>
+  <si>
+    <t>810-CGA3E2X7R1E104MA</t>
   </si>
   <si>
     <t>47p</t>
@@ -72,6 +105,12 @@
     <t>C2</t>
   </si>
   <si>
+    <t>C1608C0G1H470J080AA</t>
+  </si>
+  <si>
+    <t>810-C1608C0G1H470J</t>
+  </si>
+  <si>
     <t>10u</t>
   </si>
   <si>
@@ -81,10 +120,10 @@
     <t>C3</t>
   </si>
   <si>
-    <t>1206_SMD_C</t>
-  </si>
-  <si>
-    <t>1206_SMD_Capacitor</t>
+    <t>C3216X5R1H106K160AB</t>
+  </si>
+  <si>
+    <t>810-C3216X5R1H106K</t>
   </si>
   <si>
     <t>0805 SMD Capacitor</t>
@@ -93,10 +132,13 @@
     <t>C4</t>
   </si>
   <si>
-    <t>0805_SMD_C</t>
-  </si>
-  <si>
-    <t>0805_SMD_Capacitor</t>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C104M5RACTU</t>
+  </si>
+  <si>
+    <t>80-C0805C104M5R</t>
   </si>
   <si>
     <t>33n</t>
@@ -105,6 +147,15 @@
     <t>C5</t>
   </si>
   <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GCD188R71E333KA01D</t>
+  </si>
+  <si>
+    <t>81-GCD188R71E333KA1D</t>
+  </si>
+  <si>
     <t>47u</t>
   </si>
   <si>
@@ -114,10 +165,10 @@
     <t>C6</t>
   </si>
   <si>
-    <t>1210_SMD_C</t>
-  </si>
-  <si>
-    <t>1210_SMD_Capacitor</t>
+    <t>GRM32EC81C476KE15L</t>
+  </si>
+  <si>
+    <t>81-GRM32EC81C476KE5L</t>
   </si>
   <si>
     <t>15u</t>
@@ -129,12 +180,15 @@
     <t>L</t>
   </si>
   <si>
-    <t>DR127_SMD_L</t>
+    <t>Eaton Cooper</t>
   </si>
   <si>
     <t>DR127-150-R</t>
   </si>
   <si>
+    <t>704-DR127-150-R</t>
+  </si>
+  <si>
     <t>68k</t>
   </si>
   <si>
@@ -144,10 +198,13 @@
     <t>R1</t>
   </si>
   <si>
-    <t>0603_SMD_R</t>
-  </si>
-  <si>
-    <t>0603_SMD_Resistor</t>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>CRCW060368K0FKEAHP</t>
+  </si>
+  <si>
+    <t>71-CRCW060368K0FKEAH</t>
   </si>
   <si>
     <t>1M</t>
@@ -156,22 +213,52 @@
     <t>R2</t>
   </si>
   <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>RCS06031M00FKEA</t>
+  </si>
+  <si>
+    <t>71-RCS06031M00FKEA</t>
+  </si>
+  <si>
     <t>330k</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>CRGP0603F330K</t>
+  </si>
+  <si>
+    <t>279-CRGP0603F330K</t>
+  </si>
+  <si>
     <t>130k</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
+    <t>CRCW0603130KFKEAHP</t>
+  </si>
+  <si>
+    <t>71-CRCW0603130KFKEAH</t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
     <t>R5, R6</t>
+  </si>
+  <si>
+    <t>CRCW060310K0JNEAHP</t>
+  </si>
+  <si>
+    <t>71-CRCW060310K0JNEAH</t>
   </si>
 </sst>
 </file>
@@ -419,19 +506,20 @@
     <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
     <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
+    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
+    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
+    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +536,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -456,287 +544,547 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
-    <col min="1" max="6" width="20.2109375" customWidth="1"/>
+    <col min="1" max="1" width="9.484375" customWidth="1"/>
+    <col min="2" max="5" width="20.2109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.171875" customWidth="1"/>
+    <col min="8" max="8" width="24.59765625" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" customWidth="1"/>
+    <col min="10" max="10" width="23.78515625" customWidth="1"/>
+    <col min="11" max="11" width="21.34765625" customWidth="1"/>
+    <col min="12" max="12" width="20.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="H1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="I1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="J1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="26" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
+      <c r="L1" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="21">
+        <v>5.46</v>
+      </c>
+      <c r="L2" s="21">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="26" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.77938</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.77938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="26" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.77938</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.77938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="17">
+        <v>5.77</v>
+      </c>
+      <c r="L5" s="17">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0.77938</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0.77938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="D7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="26" t="s">
-        <v>29</v>
+      <c r="I7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="26" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="17">
+        <v>3.59</v>
+      </c>
+      <c r="L8" s="17">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="26" t="s">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="17">
+        <v>9.98</v>
+      </c>
+      <c r="L9" s="17">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="26" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1.17</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="26" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="26" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="26" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1.09</v>
+      </c>
+      <c r="L13" s="17">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="28" t="s">
+        <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="27">
+        <v>78</v>
+      </c>
+      <c r="E14" s="17">
         <v>2</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1.09</v>
+      </c>
+      <c r="L14" s="17">
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>

--- a/24-12V_3A_TPS62933/Documents/24-12V_3A_TPS62933-BOM.xlsx
+++ b/24-12V_3A_TPS62933/Documents/24-12V_3A_TPS62933-BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Line #</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Texas Instruments</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Mouser</t>
@@ -616,13 +613,13 @@
         <v>13</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="21">
         <v>5.46</v>
@@ -636,31 +633,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="K3" s="17">
         <v>0.77938</v>
@@ -674,31 +671,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="K4" s="17">
         <v>0.77938</v>
@@ -712,31 +709,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="17">
         <v>5.77</v>
@@ -750,31 +747,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="K6" s="17">
         <v>0.77938</v>
@@ -788,31 +785,31 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="K7" s="17">
         <v>1.25</v>
@@ -826,31 +823,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="K8" s="17">
         <v>3.59</v>
@@ -864,31 +861,31 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="K9" s="17">
         <v>9.98</v>
@@ -902,31 +899,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="K10" s="17">
         <v>1.17</v>
@@ -940,31 +937,31 @@
         <v>1</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="K11" s="17">
         <v>1.01</v>
@@ -978,31 +975,31 @@
         <v>1</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="K12" s="17">
         <v>1.01</v>
@@ -1016,31 +1013,31 @@
         <v>1</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="K13" s="17">
         <v>1.09</v>
@@ -1054,31 +1051,31 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="17">
         <v>2</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="K14" s="17">
         <v>1.09</v>
